--- a/Database/Helperland Database Schema.xlsx
+++ b/Database/Helperland Database Schema.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Installation\Xampp\htdocs\Helperland\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Helperland\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="171">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -59,18 +59,9 @@
     <t>no</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
   </si>
   <si>
     <t>Customer PostalCode</t>
-  </si>
-  <si>
-    <t>Telephone Number</t>
   </si>
   <si>
     <t>Service_id</t>
@@ -575,20 +563,6 @@
     <t>No</t>
   </si>
   <si>
-    <r>
-      <t>Paid_amount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>Total_Refund_Amount</t>
   </si>
   <si>
@@ -611,20 +585,6 @@
   </si>
   <si>
     <t>CallCenter Note</t>
-  </si>
-  <si>
-    <r>
-      <t>Service_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
   </si>
   <si>
     <r>
@@ -642,6 +602,52 @@
   </si>
   <si>
     <t>Accept/Cancel Booking By SP</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
+  </si>
+  <si>
+    <t>Telephone_Number</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <r>
+      <t>Booking_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Paid_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Admin_id</t>
   </si>
 </sst>
 </file>
@@ -866,6 +872,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,25 +890,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1182,8 +1188,8 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1198,16 +1204,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -1228,9 +1234,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1244,16 +1250,16 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10">
         <v>150</v>
@@ -1262,34 +1268,34 @@
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>150</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="10">
         <v>100</v>
@@ -1298,17 +1304,17 @@
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="10">
         <v>10</v>
       </c>
@@ -1316,50 +1322,50 @@
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="10">
         <v>255</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="10">
         <v>100</v>
@@ -1368,16 +1374,16 @@
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="11">
         <v>30</v>
@@ -1386,16 +1392,16 @@
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:6" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1404,30 +1410,30 @@
     <row r="19" spans="1:6" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>27</v>
+      <c r="A21" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" s="10">
         <v>150</v>
@@ -1436,34 +1442,34 @@
         <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="10">
         <v>150</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" s="10">
         <v>100</v>
@@ -1472,137 +1478,137 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="10">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="10">
         <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="10">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="10">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="30" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" s="10">
         <v>255</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3">
         <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
@@ -1611,53 +1617,53 @@
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3">
         <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3">
         <v>100</v>
@@ -1666,16 +1672,16 @@
         <v>10</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D36" s="7">
         <v>30</v>
@@ -1684,42 +1690,42 @@
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>34</v>
+      <c r="A38" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D39" s="10">
         <v>100</v>
@@ -1728,16 +1734,16 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40" s="10">
         <v>100</v>
@@ -1746,16 +1752,16 @@
         <v>10</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" s="11">
         <v>100</v>
@@ -1764,60 +1770,60 @@
         <v>10</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>55</v>
+      <c r="A43" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="10">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D45" s="10">
         <v>255</v>
@@ -1826,34 +1832,34 @@
         <v>10</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="10">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="10">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D47" s="10">
         <v>6</v>
@@ -1862,16 +1868,16 @@
         <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D48" s="10">
         <v>10</v>
@@ -1880,16 +1886,16 @@
         <v>10</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D49" s="11">
         <v>200</v>
@@ -1898,93 +1904,93 @@
         <v>10</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>88</v>
+      <c r="A52" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D56" s="10">
         <v>100</v>
@@ -1993,32 +1999,32 @@
         <v>10</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D58" s="10">
         <v>100</v>
@@ -2027,52 +2033,48 @@
         <v>10</v>
       </c>
       <c r="F58" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="10">
-        <v>100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="10">
-        <v>255</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D61" s="10">
         <v>100</v>
@@ -2081,751 +2083,735 @@
         <v>10</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D68" s="10">
         <v>255</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
       <c r="B69" s="3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D69" s="10">
         <v>100</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
       <c r="B70" s="3" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="10">
-        <v>100</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D70" s="10"/>
       <c r="E70" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="10">
+        <v>255</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="11">
+        <v>255</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="11">
+        <v>255</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+    </row>
+    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="10">
-        <v>100</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="18">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="18">
+        <v>10</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="18">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="18">
+        <v>255</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="19">
+        <v>10</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="10">
-        <v>255</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="11">
-        <v>255</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-    </row>
-    <row r="75" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="12">
-        <v>100</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="10">
-        <v>100</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="10">
-        <v>100</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="10">
-        <v>100</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="11">
-        <v>255</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="18">
-        <v>100</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="18">
-        <v>100</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="18">
-        <v>100</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D86" s="18">
-        <v>10</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="18">
-        <v>10</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="6" t="s">
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" s="18">
-        <v>10</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="18">
-        <v>255</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" s="19">
-        <v>10</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-    </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="10">
-        <v>100</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
+    <row r="94" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
       <c r="B94" s="3" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D94" s="10">
         <v>100</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
       <c r="B95" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D95" s="10">
         <v>100</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
       <c r="B96" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="10">
+        <v>255</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="11">
+        <v>255</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
+      <c r="B100" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="10">
-        <v>100</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="10">
-        <v>255</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="7" t="s">
+    </row>
+    <row r="101" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="11">
-        <v>255</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="8" t="s">
+      <c r="F101" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="10">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-    </row>
-    <row r="100" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="C103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="10">
+        <v>10</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="104" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="24"/>
+      <c r="B104" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="10">
-        <v>255</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D102" s="10">
-        <v>10</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="10">
-        <v>255</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D104" s="10">
         <v>255</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D105" s="11">
         <v>255</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A52:A73"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A52:A72"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="A99:A105"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
